--- a/natmiOut/OldD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Timp2-Itgb1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H2">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I2">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J2">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N2">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O2">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P2">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q2">
-        <v>917.698365648034</v>
+        <v>1074.430095564175</v>
       </c>
       <c r="R2">
-        <v>917.698365648034</v>
+        <v>9669.870860077581</v>
       </c>
       <c r="S2">
-        <v>0.005487835847561753</v>
+        <v>0.005772214281339058</v>
       </c>
       <c r="T2">
-        <v>0.005487835847561753</v>
+        <v>0.005772214281339058</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H3">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I3">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J3">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N3">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P3">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q3">
-        <v>1092.262500358656</v>
+        <v>1181.297736528758</v>
       </c>
       <c r="R3">
-        <v>1092.262500358656</v>
+        <v>10631.67962875882</v>
       </c>
       <c r="S3">
-        <v>0.006531729301035512</v>
+        <v>0.006346344628148515</v>
       </c>
       <c r="T3">
-        <v>0.006531729301035512</v>
+        <v>0.006346344628148514</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H4">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I4">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J4">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N4">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P4">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q4">
-        <v>398.9866344753588</v>
+        <v>476.5111760416722</v>
       </c>
       <c r="R4">
-        <v>398.9866344753588</v>
+        <v>4288.60058437505</v>
       </c>
       <c r="S4">
-        <v>0.002385939909379398</v>
+        <v>0.002559984709029516</v>
       </c>
       <c r="T4">
-        <v>0.002385939909379398</v>
+        <v>0.002559984709029516</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.47772940267813</v>
+        <v>6.998221666666667</v>
       </c>
       <c r="H5">
-        <v>6.47772940267813</v>
+        <v>20.994665</v>
       </c>
       <c r="I5">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="J5">
-        <v>0.01751149954385872</v>
+        <v>0.01819620957294902</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N5">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P5">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q5">
-        <v>519.3971070895255</v>
+        <v>654.7723253798483</v>
       </c>
       <c r="R5">
-        <v>519.3971070895255</v>
+        <v>5892.950928418635</v>
       </c>
       <c r="S5">
-        <v>0.003105994485882057</v>
+        <v>0.00351766595443193</v>
       </c>
       <c r="T5">
-        <v>0.003105994485882057</v>
+        <v>0.00351766595443193</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H6">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I6">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J6">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N6">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O6">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P6">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q6">
-        <v>35913.8728516143</v>
+        <v>39257.27167826759</v>
       </c>
       <c r="R6">
-        <v>35913.8728516143</v>
+        <v>353315.4451044083</v>
       </c>
       <c r="S6">
-        <v>0.214764944820065</v>
+        <v>0.2109037946379534</v>
       </c>
       <c r="T6">
-        <v>0.214764944820065</v>
+        <v>0.2109037946379534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H7">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I7">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J7">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N7">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P7">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q7">
-        <v>42745.39219732252</v>
+        <v>43161.97616512323</v>
       </c>
       <c r="R7">
-        <v>42745.39219732252</v>
+        <v>388457.7854861091</v>
       </c>
       <c r="S7">
-        <v>0.2556174276859524</v>
+        <v>0.2318812329063797</v>
       </c>
       <c r="T7">
-        <v>0.2556174276859524</v>
+        <v>0.2318812329063797</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H8">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I8">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J8">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N8">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P8">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q8">
-        <v>15614.23207932052</v>
+        <v>17410.6521893135</v>
       </c>
       <c r="R8">
-        <v>15614.23207932052</v>
+        <v>156695.8697038215</v>
       </c>
       <c r="S8">
-        <v>0.09337310138558971</v>
+        <v>0.09353611335860033</v>
       </c>
       <c r="T8">
-        <v>0.09337310138558971</v>
+        <v>0.09353611335860033</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>253.504156532595</v>
+        <v>255.6993613333333</v>
       </c>
       <c r="H9">
-        <v>253.504156532595</v>
+        <v>767.098084</v>
       </c>
       <c r="I9">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778685</v>
       </c>
       <c r="J9">
-        <v>0.6853077128617761</v>
+        <v>0.6648487841778684</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N9">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P9">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q9">
-        <v>20326.46277008163</v>
+        <v>23923.91573073951</v>
       </c>
       <c r="R9">
-        <v>20326.46277008163</v>
+        <v>215315.2415766556</v>
       </c>
       <c r="S9">
-        <v>0.121552238970169</v>
+        <v>0.1285276432749351</v>
       </c>
       <c r="T9">
-        <v>0.121552238970169</v>
+        <v>0.1285276432749351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.46818085567919</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H10">
-        <v>75.46818085567919</v>
+        <v>254.159123</v>
       </c>
       <c r="I10">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J10">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N10">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O10">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P10">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q10">
-        <v>10691.55902082814</v>
+        <v>13006.9334668306</v>
       </c>
       <c r="R10">
-        <v>10691.55902082814</v>
+        <v>117062.4012014754</v>
       </c>
       <c r="S10">
-        <v>0.06393551852889105</v>
+        <v>0.06987779607406025</v>
       </c>
       <c r="T10">
-        <v>0.06393551852889105</v>
+        <v>0.06987779607406025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.46818085567919</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H11">
-        <v>75.46818085567919</v>
+        <v>254.159123</v>
       </c>
       <c r="I11">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J11">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N11">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P11">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q11">
-        <v>12725.30215369346</v>
+        <v>14300.66146414026</v>
       </c>
       <c r="R11">
-        <v>12725.30215369346</v>
+        <v>128705.9531772623</v>
       </c>
       <c r="S11">
-        <v>0.0760973016234807</v>
+        <v>0.07682815538833258</v>
       </c>
       <c r="T11">
-        <v>0.0760973016234807</v>
+        <v>0.07682815538833258</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>75.46818085567919</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H12">
-        <v>75.46818085567919</v>
+        <v>254.159123</v>
       </c>
       <c r="I12">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J12">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N12">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P12">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q12">
-        <v>4648.356486940661</v>
+        <v>5768.592287728812</v>
       </c>
       <c r="R12">
-        <v>4648.356486940661</v>
+        <v>51917.33058955931</v>
       </c>
       <c r="S12">
-        <v>0.02779716987211334</v>
+        <v>0.03099089547465281</v>
       </c>
       <c r="T12">
-        <v>0.02779716987211334</v>
+        <v>0.03099089547465281</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>75.46818085567919</v>
+        <v>84.71970766666666</v>
       </c>
       <c r="H13">
-        <v>75.46818085567919</v>
+        <v>254.159123</v>
       </c>
       <c r="I13">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="J13">
-        <v>0.2040160884280983</v>
+        <v>0.2202813270411758</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N13">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P13">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q13">
-        <v>6051.187441936525</v>
+        <v>7926.602305071927</v>
       </c>
       <c r="R13">
-        <v>6051.187441936525</v>
+        <v>71339.42074564734</v>
       </c>
       <c r="S13">
-        <v>0.03618609840361321</v>
+        <v>0.04258448010413014</v>
       </c>
       <c r="T13">
-        <v>0.03618609840361321</v>
+        <v>0.04258448010413013</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>34.4628231048686</v>
+        <v>37.18048166666667</v>
       </c>
       <c r="H14">
-        <v>34.4628231048686</v>
+        <v>111.541445</v>
       </c>
       <c r="I14">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800672</v>
       </c>
       <c r="J14">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800671</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>141.669759355589</v>
+        <v>153.5290173333333</v>
       </c>
       <c r="N14">
-        <v>141.669759355589</v>
+        <v>460.587052</v>
       </c>
       <c r="O14">
-        <v>0.313384689518856</v>
+        <v>0.3172206968818489</v>
       </c>
       <c r="P14">
-        <v>0.313384689518856</v>
+        <v>0.317220696881849</v>
       </c>
       <c r="Q14">
-        <v>4882.339855980967</v>
+        <v>5708.282814263348</v>
       </c>
       <c r="R14">
-        <v>4882.339855980967</v>
+        <v>51374.54532837014</v>
       </c>
       <c r="S14">
-        <v>0.0291963903223382</v>
+        <v>0.0306668918884962</v>
       </c>
       <c r="T14">
-        <v>0.0291963903223382</v>
+        <v>0.0306668918884962</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>34.4628231048686</v>
+        <v>37.18048166666667</v>
       </c>
       <c r="H15">
-        <v>34.4628231048686</v>
+        <v>111.541445</v>
       </c>
       <c r="I15">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800672</v>
       </c>
       <c r="J15">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800671</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>168.618111757968</v>
+        <v>168.7997026666667</v>
       </c>
       <c r="N15">
-        <v>168.618111757968</v>
+        <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="P15">
-        <v>0.3729965720340717</v>
+        <v>0.3487728915577651</v>
       </c>
       <c r="Q15">
-        <v>5811.056157791815</v>
+        <v>6276.054250336785</v>
       </c>
       <c r="R15">
-        <v>5811.056157791815</v>
+        <v>56484.48825303106</v>
       </c>
       <c r="S15">
-        <v>0.03475011342360312</v>
+        <v>0.0337171586349043</v>
       </c>
       <c r="T15">
-        <v>0.03475011342360312</v>
+        <v>0.03371715863490429</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>34.4628231048686</v>
+        <v>37.18048166666667</v>
       </c>
       <c r="H16">
-        <v>34.4628231048686</v>
+        <v>111.541445</v>
       </c>
       <c r="I16">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800672</v>
       </c>
       <c r="J16">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800671</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5935939390125</v>
+        <v>68.09032333333333</v>
       </c>
       <c r="N16">
-        <v>61.5935939390125</v>
+        <v>204.27097</v>
       </c>
       <c r="O16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="P16">
-        <v>0.1362498913016359</v>
+        <v>0.1406878008722904</v>
       </c>
       <c r="Q16">
-        <v>2122.689132313295</v>
+        <v>2531.631018372405</v>
       </c>
       <c r="R16">
-        <v>2122.689132313295</v>
+        <v>22784.67916535165</v>
       </c>
       <c r="S16">
-        <v>0.01269368013455349</v>
+        <v>0.01360080733000773</v>
       </c>
       <c r="T16">
-        <v>0.01269368013455349</v>
+        <v>0.01360080733000773</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>34.4628231048686</v>
+        <v>37.18048166666667</v>
       </c>
       <c r="H17">
-        <v>34.4628231048686</v>
+        <v>111.541445</v>
       </c>
       <c r="I17">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800672</v>
       </c>
       <c r="J17">
-        <v>0.09316469916626699</v>
+        <v>0.09667367920800671</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>80.1819703791251</v>
+        <v>93.562673</v>
       </c>
       <c r="N17">
-        <v>80.1819703791251</v>
+        <v>280.688019</v>
       </c>
       <c r="O17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="P17">
-        <v>0.1773688471454364</v>
+        <v>0.1933186106880956</v>
       </c>
       <c r="Q17">
-        <v>2763.297061375602</v>
+        <v>3478.705248160828</v>
       </c>
       <c r="R17">
-        <v>2763.297061375602</v>
+        <v>31308.34723344745</v>
       </c>
       <c r="S17">
-        <v>0.01652451528577218</v>
+        <v>0.0186888213545985</v>
       </c>
       <c r="T17">
-        <v>0.01652451528577218</v>
+        <v>0.01868882135459849</v>
       </c>
     </row>
   </sheetData>
